--- a/关卡/关卡.xlsx
+++ b/关卡/关卡.xlsx
@@ -60,29 +60,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,7 +84,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -112,11 +91,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,7 +115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,9 +137,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +166,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -189,8 +181,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,13 +219,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,169 +363,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +424,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,6 +463,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -463,26 +483,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,8 +505,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,7 +528,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,130 +546,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1348,10 +1348,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="28.3" customHeight="1"/>
@@ -1419,7 +1419,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" customHeight="1" spans="2:12">
+    <row r="7" customHeight="1" spans="2:18">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1431,8 +1431,17 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" customHeight="1" spans="2:12">
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:18">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1444,8 +1453,17 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:12">
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1458,8 +1476,17 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:12">
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1472,8 +1499,17 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:12">
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1486,6 +1522,15 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:12">
       <c r="A12" s="1"/>
@@ -1573,7 +1618,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" customHeight="1" spans="2:12">
+    <row r="19" customHeight="1" spans="2:14">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1585,8 +1630,11 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:12">
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:14">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1598,8 +1646,11 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:12">
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:14">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1612,8 +1663,11 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:12">
+      <c r="N21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:14">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1626,8 +1680,11 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:12">
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:14">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1640,6 +1697,9 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
+      <c r="N23">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" customHeight="1" spans="1:12">
       <c r="A24" s="1"/>
@@ -1694,7 +1754,7 @@
   <sheetPr/>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -2109,8 +2169,8 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="28.3" customHeight="1"/>
